--- a/datos/imagenes/Arturo/video-7/video-7.xlsx
+++ b/datos/imagenes/Arturo/video-7/video-7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\notebooks\Paper interferometria\Interferometria - GUA\datos\imagenes\Arturo\video-7\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54340B7D-D990-4AFB-85B8-182EDE17EC6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF913149-86E3-4C6C-9132-54C64B0FBBA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="2928" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="768" yWindow="768" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -536,7 +536,7 @@
   <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -584,32 +584,32 @@
         <v>1</v>
       </c>
       <c r="C2" s="8">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D2" s="9">
-        <v>243.2</v>
+        <v>214.3</v>
       </c>
       <c r="E2" s="9">
-        <v>87.5</v>
+        <v>42.4</v>
       </c>
       <c r="F2" s="9">
-        <v>75.5</v>
+        <v>38.9</v>
       </c>
       <c r="G2" s="4">
         <f>(E2+F2)/2</f>
-        <v>81.5</v>
+        <v>40.65</v>
       </c>
       <c r="H2" s="5">
         <f>(D2-G2)/(D2+G2)</f>
-        <v>0.4979981521404373</v>
+        <v>0.68111394391057067</v>
       </c>
       <c r="I2" s="6">
         <f>AVERAGE(H2:H11)</f>
-        <v>0.58251610880910576</v>
+        <v>0.67346338925316762</v>
       </c>
       <c r="J2" s="6">
         <f>STDEVA(H2:H11)</f>
-        <v>7.6428830195971173E-2</v>
+        <v>6.4161791368063423E-2</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -620,24 +620,24 @@
         <v>2</v>
       </c>
       <c r="C3" s="8">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="D3" s="9">
-        <v>246.3</v>
+        <v>243.2</v>
       </c>
       <c r="E3" s="9">
-        <v>51.9</v>
+        <v>42.3</v>
       </c>
       <c r="F3" s="9">
-        <v>49.9</v>
+        <v>38.299999999999997</v>
       </c>
       <c r="G3" s="4">
         <f t="shared" ref="G3:G11" si="0">(E3+F3)/2</f>
-        <v>50.9</v>
+        <v>40.299999999999997</v>
       </c>
       <c r="H3" s="5">
         <f t="shared" ref="H3:H11" si="1">(D3-G3)/(D3+G3)</f>
-        <v>0.65746971736204585</v>
+        <v>0.71569664902998231</v>
       </c>
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
@@ -650,24 +650,24 @@
         <v>3</v>
       </c>
       <c r="C4" s="8">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="D4" s="9">
-        <v>255</v>
+        <v>231.8</v>
       </c>
       <c r="E4" s="9">
-        <v>45.6</v>
+        <v>43.7</v>
       </c>
       <c r="F4" s="9">
-        <v>68.900000000000006</v>
+        <v>48.7</v>
       </c>
       <c r="G4" s="4">
         <f t="shared" si="0"/>
-        <v>57.25</v>
+        <v>46.2</v>
       </c>
       <c r="H4" s="5">
         <f t="shared" si="1"/>
-        <v>0.63330664531625303</v>
+        <v>0.66762589928057559</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -680,24 +680,24 @@
         <v>4</v>
       </c>
       <c r="C5" s="11">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="D5" s="9">
-        <v>250.1</v>
+        <v>250.2</v>
       </c>
       <c r="E5" s="9">
-        <v>69.2</v>
+        <v>42.6</v>
       </c>
       <c r="F5" s="9">
-        <v>72.3</v>
+        <v>28.3</v>
       </c>
       <c r="G5" s="4">
         <f t="shared" si="0"/>
-        <v>70.75</v>
+        <v>35.450000000000003</v>
       </c>
       <c r="H5" s="5">
         <f t="shared" si="1"/>
-        <v>0.55898394888577208</v>
+        <v>0.75179415368457914</v>
       </c>
       <c r="I5" s="6"/>
       <c r="J5" s="6"/>
@@ -710,24 +710,24 @@
         <v>5</v>
       </c>
       <c r="C6" s="11">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="D6" s="9">
-        <v>253.5</v>
+        <v>249.4</v>
       </c>
       <c r="E6" s="9">
-        <v>71.599999999999994</v>
+        <v>50</v>
       </c>
       <c r="F6" s="9">
-        <v>79.099999999999994</v>
+        <v>71.5</v>
       </c>
       <c r="G6" s="4">
         <f t="shared" si="0"/>
-        <v>75.349999999999994</v>
+        <v>60.75</v>
       </c>
       <c r="H6" s="5">
         <f t="shared" si="1"/>
-        <v>0.54173635396077235</v>
+        <v>0.60825407061099479</v>
       </c>
       <c r="I6" s="6"/>
       <c r="J6" s="6"/>
@@ -740,24 +740,24 @@
         <v>6</v>
       </c>
       <c r="C7" s="11">
-        <v>100</v>
+        <v>46</v>
       </c>
       <c r="D7" s="9">
-        <v>237.6</v>
+        <v>248.4</v>
       </c>
       <c r="E7" s="9">
-        <v>68.5</v>
+        <v>43.2</v>
       </c>
       <c r="F7" s="9">
-        <v>88.5</v>
+        <v>40.4</v>
       </c>
       <c r="G7" s="4">
         <f t="shared" si="0"/>
-        <v>78.5</v>
+        <v>41.8</v>
       </c>
       <c r="H7" s="5">
         <f t="shared" si="1"/>
-        <v>0.50332173362859844</v>
+        <v>0.71192281185389394</v>
       </c>
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
@@ -770,24 +770,24 @@
         <v>7</v>
       </c>
       <c r="C8" s="11">
-        <v>120</v>
+        <v>62</v>
       </c>
       <c r="D8" s="9">
-        <v>243.4</v>
+        <v>231.3</v>
       </c>
       <c r="E8" s="9">
-        <v>41.2</v>
+        <v>59.8</v>
       </c>
       <c r="F8" s="9">
-        <v>42.3</v>
+        <v>50.6</v>
       </c>
       <c r="G8" s="4">
         <f t="shared" si="0"/>
-        <v>41.75</v>
+        <v>55.2</v>
       </c>
       <c r="H8" s="5">
         <f t="shared" si="1"/>
-        <v>0.70717166403647214</v>
+        <v>0.61465968586387443</v>
       </c>
       <c r="I8" s="6"/>
       <c r="J8" s="6"/>
@@ -800,24 +800,24 @@
         <v>8</v>
       </c>
       <c r="C9" s="11">
-        <v>140</v>
+        <v>95</v>
       </c>
       <c r="D9" s="9">
-        <v>252.9</v>
+        <v>234.5</v>
       </c>
       <c r="E9" s="9">
-        <v>46</v>
+        <v>56.5</v>
       </c>
       <c r="F9" s="9">
-        <v>77</v>
+        <v>77.3</v>
       </c>
       <c r="G9" s="4">
         <f t="shared" si="0"/>
-        <v>61.5</v>
+        <v>66.900000000000006</v>
       </c>
       <c r="H9" s="5">
         <f t="shared" si="1"/>
-        <v>0.60877862595419852</v>
+        <v>0.55607166556071663</v>
       </c>
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
@@ -830,24 +830,24 @@
         <v>9</v>
       </c>
       <c r="C10" s="11">
-        <v>160</v>
+        <v>122</v>
       </c>
       <c r="D10" s="9">
-        <v>253.8</v>
+        <v>252.6</v>
       </c>
       <c r="E10" s="9">
-        <v>56.1</v>
+        <v>49.5</v>
       </c>
       <c r="F10" s="9">
-        <v>57.8</v>
+        <v>48.1</v>
       </c>
       <c r="G10" s="4">
         <f t="shared" si="0"/>
-        <v>56.95</v>
+        <v>48.8</v>
       </c>
       <c r="H10" s="5">
         <f t="shared" si="1"/>
-        <v>0.63346741753821412</v>
+        <v>0.67617783676177845</v>
       </c>
       <c r="I10" s="6"/>
       <c r="J10" s="6"/>
@@ -860,24 +860,24 @@
         <v>10</v>
       </c>
       <c r="C11" s="11">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="D11" s="10">
-        <v>250.8</v>
+        <v>249.3</v>
       </c>
       <c r="E11" s="10">
-        <v>96.2</v>
+        <v>35.799999999999997</v>
       </c>
       <c r="F11" s="10">
-        <v>78.7</v>
+        <v>35</v>
       </c>
       <c r="G11" s="4">
         <f t="shared" si="0"/>
-        <v>87.45</v>
+        <v>35.4</v>
       </c>
       <c r="H11" s="7">
         <f t="shared" si="1"/>
-        <v>0.48292682926829272</v>
+        <v>0.75131717597471026</v>
       </c>
       <c r="I11" s="6"/>
       <c r="J11" s="6"/>
